--- a/va_facility_data_2025-02-20/Newcastle VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newcastle%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Newcastle VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newcastle%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3ec2acd1de5a41c09bc67e7886023ada"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R51affece218548f3b6d3a2b7a7357876"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8320d5f9742a494d87a564dbe19d1f4e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R02ab00061ade4c6eb80069195a1fcd47"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb3311e7bf8a84cfbaeb7c03aa91151e8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdd00bc5f332c4e58863ed66cc09e7643"/>
   </x:sheets>
 </x:workbook>
 </file>
